--- a/5 sem/Lab 5.02/5.02.xlsx
+++ b/5 sem/Lab 5.02/5.02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitryvasilkov/Desktop/bimbim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD9BC4D-AEF0-684B-BF56-874526D6F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E892FE-8001-A04B-A77D-B4686034DBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="920" windowWidth="19860" windowHeight="16960" xr2:uid="{BB137560-BEE9-5E40-8495-A31366DFF3C1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" activeTab="2" xr2:uid="{BB137560-BEE9-5E40-8495-A31366DFF3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,19 +344,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,10 +362,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1290,16 +1290,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1319,6 +1317,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$L$3:$L$14</c:f>
@@ -1409,7 +1421,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A4B4-1E44-9416-6F06661ED5E6}"/>
@@ -1420,10 +1432,8 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1443,6 +1453,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$L$19:$L$30</c:f>
@@ -1533,7 +1557,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A4B4-1E44-9416-6F06661ED5E6}"/>
@@ -1848,16 +1872,14 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1891,6 +1913,21 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet3!$M$7:$M$14</c:f>
@@ -1957,7 +1994,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D610-9040-854D-B6A26BE38178}"/>
@@ -2239,16 +2276,14 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2268,130 +2303,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.30473470088004867"/>
-                  <c:y val="-1.3940653066541273E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-908D-B84E-A983-0834F8D689A7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.21714366137442065"/>
-                  <c:y val="-2.7881306133082377E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-908D-B84E-A983-0834F8D689A7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.9206137235157803E-2"/>
-                  <c:y val="1.3940653066541188E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-908D-B84E-A983-0834F8D689A7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="l"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2406,6 +2317,21 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet3!$P$7:$P$14</c:f>
@@ -2472,7 +2398,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0568-AD41-A193-468AAD593513}"/>
@@ -2511,7 +2437,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4886,16 +4812,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4973,6 +4897,35 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$R$20:$R$32</c:f>
@@ -5069,7 +5022,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBDD-F441-B463-C19347EC6CBB}"/>
@@ -5080,10 +5033,8 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5161,6 +5112,77 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$R$3:$R$15</c:f>
@@ -5257,7 +5279,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FBDD-F441-B463-C19347EC6CBB}"/>
@@ -5268,10 +5290,8 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5349,6 +5369,49 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$R$37:$R$49</c:f>
@@ -5445,7 +5508,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FBDD-F441-B463-C19347EC6CBB}"/>
@@ -5723,16 +5786,14 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5810,6 +5871,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$20:$U$26</c:f>
@@ -5870,7 +5946,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B06-2F4F-9E27-45B745F61A8C}"/>
@@ -5881,10 +5957,8 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5962,6 +6036,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$3:$U$9</c:f>
@@ -6022,7 +6111,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1B06-2F4F-9E27-45B745F61A8C}"/>
@@ -6033,10 +6122,8 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6114,6 +6201,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$U$37:$U$43</c:f>
@@ -6174,7 +6276,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1B06-2F4F-9E27-45B745F61A8C}"/>
@@ -14387,7 +14489,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="28" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F31CA0F-E9AE-954F-A169-9CB47619B187}"/>
@@ -14418,19 +14520,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>30789</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>810492</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>153748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 1">
+        <xdr:cNvPr id="35" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7A1BB0-031E-8207-7F46-347168E8704F}"/>
@@ -14466,7 +14568,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="40" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9522EE-3820-E4AC-B7DF-149620EB1171}"/>
@@ -14853,8 +14955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C7392A-5000-2143-908C-F3B39B10A877}">
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8"/>
+    <sheetView topLeftCell="AC4" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14864,38 +14966,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="R1" s="22" t="s">
+      <c r="P1" s="16"/>
+      <c r="R1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="U1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="U1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -15521,8 +15623,8 @@
         <f t="shared" si="3"/>
         <v>3.0199999999999996</v>
       </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
     </row>
     <row r="15" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -15602,72 +15704,72 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="R18" s="22" t="s">
+      <c r="P18" s="16"/>
+      <c r="R18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="22"/>
-      <c r="U18" s="15" t="s">
+      <c r="S18" s="15"/>
+      <c r="U18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="V18" s="15"/>
+      <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15" t="s">
+      <c r="N19" s="16"/>
+      <c r="O19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="15"/>
+      <c r="P19" s="16"/>
       <c r="R19" s="5" t="s">
         <v>9</v>
       </c>
@@ -15682,40 +15784,40 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="16">
         <v>0</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
+      <c r="B20" s="16"/>
+      <c r="C20" s="18">
         <v>0.38</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
         <v>0.05</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <f>C20-E20</f>
         <v>0.33</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19">
+      <c r="H20" s="18"/>
+      <c r="I20" s="21">
         <v>0</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="16">
+      <c r="J20" s="21"/>
+      <c r="K20" s="18">
         <v>0.39</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+      <c r="L20" s="18"/>
+      <c r="M20" s="18">
         <v>0.08</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16">
+      <c r="N20" s="18"/>
+      <c r="O20" s="18">
         <f>K20-M20</f>
         <v>0.31</v>
       </c>
-      <c r="P20" s="16"/>
+      <c r="P20" s="18"/>
       <c r="R20" s="7">
         <f>A20</f>
         <v>0</v>
@@ -15734,40 +15836,40 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="16">
         <v>1</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16">
+      <c r="B21" s="16"/>
+      <c r="C21" s="18">
         <v>1.3</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <v>0.17</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
         <f t="shared" ref="G21:G32" si="6">C21-E21</f>
         <v>1.1300000000000001</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19">
+      <c r="H21" s="18"/>
+      <c r="I21" s="21">
         <v>0.5</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="16">
+      <c r="J21" s="21"/>
+      <c r="K21" s="18">
         <v>0.06</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16">
+      <c r="L21" s="18"/>
+      <c r="M21" s="18">
         <v>0.08</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16">
+      <c r="N21" s="18"/>
+      <c r="O21" s="18">
         <f t="shared" ref="O21:O26" si="7">K21-M21</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="P21" s="16"/>
+      <c r="P21" s="18"/>
       <c r="R21" s="7">
         <f t="shared" ref="R21:R32" si="8">A21</f>
         <v>1</v>
@@ -15786,40 +15888,40 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>2</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18">
         <v>1.9</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <f t="shared" si="6"/>
         <v>1.6199999999999999</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19">
+      <c r="H22" s="18"/>
+      <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="16">
+      <c r="J22" s="21"/>
+      <c r="K22" s="18">
         <v>0.05</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16">
+      <c r="L22" s="18"/>
+      <c r="M22" s="18">
         <v>0.06</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16">
+      <c r="N22" s="18"/>
+      <c r="O22" s="18">
         <f t="shared" si="7"/>
         <v>-9.999999999999995E-3</v>
       </c>
-      <c r="P22" s="16"/>
+      <c r="P22" s="18"/>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -15838,40 +15940,40 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="16">
         <v>3</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16">
+      <c r="B23" s="16"/>
+      <c r="C23" s="18">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
         <v>0.39</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <f t="shared" si="6"/>
         <v>1.85</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19">
+      <c r="H23" s="18"/>
+      <c r="I23" s="21">
         <v>1.5</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="16">
+      <c r="J23" s="21"/>
+      <c r="K23" s="18">
         <v>0.04</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18">
         <v>0.04</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16">
+      <c r="N23" s="18"/>
+      <c r="O23" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P23" s="16"/>
+      <c r="P23" s="18"/>
       <c r="R23" s="7">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -15890,40 +15992,40 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="16">
         <v>4</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16">
+      <c r="B24" s="16"/>
+      <c r="C24" s="18">
         <v>2.48</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
         <v>0.49</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <f t="shared" si="6"/>
         <v>1.99</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19">
+      <c r="H24" s="18"/>
+      <c r="I24" s="21">
         <v>2</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="16">
+      <c r="J24" s="21"/>
+      <c r="K24" s="18">
         <v>0.01</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18">
         <v>0</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16">
+      <c r="N24" s="18"/>
+      <c r="O24" s="18">
         <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
-      <c r="P24" s="16"/>
+      <c r="P24" s="18"/>
       <c r="R24" s="7">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -15942,40 +16044,40 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>5</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16">
+      <c r="B25" s="16"/>
+      <c r="C25" s="18">
         <v>2.69</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
         <v>0.59</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
         <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19">
+      <c r="H25" s="18"/>
+      <c r="I25" s="21">
         <v>2.5</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="16">
+      <c r="J25" s="21"/>
+      <c r="K25" s="18">
         <v>-0.05</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18">
         <v>-0.02</v>
       </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16">
+      <c r="N25" s="18"/>
+      <c r="O25" s="18">
         <f t="shared" si="7"/>
         <v>-3.0000000000000002E-2</v>
       </c>
-      <c r="P25" s="16"/>
+      <c r="P25" s="18"/>
       <c r="R25" s="7">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -15994,40 +16096,40 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>6</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16">
+      <c r="B26" s="16"/>
+      <c r="C26" s="18">
         <v>2.87</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
         <v>0.62</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="19">
+      <c r="H26" s="18"/>
+      <c r="I26" s="21">
         <v>3</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="16">
+      <c r="J26" s="21"/>
+      <c r="K26" s="18">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18">
         <v>-0.05</v>
       </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16">
+      <c r="N26" s="18"/>
+      <c r="O26" s="18">
         <f t="shared" si="7"/>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="P26" s="16"/>
+      <c r="P26" s="18"/>
       <c r="R26" s="7">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -16046,23 +16148,23 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="16">
         <v>7</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16">
+      <c r="B27" s="16"/>
+      <c r="C27" s="18">
         <v>3</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18">
         <v>0.73</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <f t="shared" si="6"/>
         <v>2.27</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="5" t="s">
         <v>26</v>
       </c>
@@ -16093,23 +16195,23 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="16">
         <v>8</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16">
+      <c r="B28" s="16"/>
+      <c r="C28" s="18">
         <v>3.18</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
         <v>0.85</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <f t="shared" si="6"/>
         <v>2.33</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="5" t="s">
         <v>27</v>
       </c>
@@ -16136,23 +16238,23 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="16">
         <v>9</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16">
+      <c r="B29" s="16"/>
+      <c r="C29" s="18">
         <v>3.3</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
         <v>0.95</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
         <f t="shared" si="6"/>
         <v>2.3499999999999996</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -16171,23 +16273,23 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="16">
         <v>10</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16">
+      <c r="B30" s="16"/>
+      <c r="C30" s="18">
         <v>3.46</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <v>1.05</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
         <f t="shared" si="6"/>
         <v>2.41</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -16206,23 +16308,23 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>11</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16">
+      <c r="B31" s="16"/>
+      <c r="C31" s="18">
         <v>3.57</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
         <f t="shared" si="6"/>
         <v>2.42</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -16241,23 +16343,23 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="16">
         <v>12</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16">
+      <c r="B32" s="16"/>
+      <c r="C32" s="18">
         <v>3.64</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18">
         <v>1.2</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18">
         <f t="shared" si="6"/>
         <v>2.4400000000000004</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -16311,72 +16413,72 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="16"/>
+      <c r="I35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="R35" s="22" t="s">
+      <c r="P35" s="16"/>
+      <c r="R35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="U35" s="15" t="s">
+      <c r="S35" s="15"/>
+      <c r="U35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="15"/>
+      <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="20" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15" t="s">
+      <c r="H36" s="16"/>
+      <c r="I36" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15" t="s">
+      <c r="J36" s="16"/>
+      <c r="K36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15" t="s">
+      <c r="L36" s="16"/>
+      <c r="M36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15" t="s">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="15"/>
+      <c r="P36" s="16"/>
       <c r="R36" s="5" t="s">
         <v>9</v>
       </c>
@@ -16391,40 +16493,40 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="16">
         <v>0</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16">
+      <c r="B37" s="16"/>
+      <c r="C37" s="18">
         <v>0.38</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18">
         <v>0.08</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
         <f>C37-E37</f>
         <v>0.3</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="19">
+      <c r="H37" s="18"/>
+      <c r="I37" s="21">
         <v>0</v>
       </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="15">
+      <c r="J37" s="21"/>
+      <c r="K37" s="16">
         <v>0.38</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15">
+      <c r="L37" s="16"/>
+      <c r="M37" s="16">
         <v>0.08</v>
       </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16">
         <f>K37-M37</f>
         <v>0.3</v>
       </c>
-      <c r="P37" s="15"/>
+      <c r="P37" s="16"/>
       <c r="R37" s="7">
         <f>A37</f>
         <v>0</v>
@@ -16443,40 +16545,40 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="16">
         <v>1</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16">
+      <c r="B38" s="16"/>
+      <c r="C38" s="18">
         <v>1.35</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16">
+      <c r="D38" s="18"/>
+      <c r="E38" s="18">
         <v>0.2</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16">
+      <c r="F38" s="18"/>
+      <c r="G38" s="18">
         <f t="shared" ref="G38:G49" si="12">C38-E38</f>
         <v>1.1500000000000001</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="19">
+      <c r="H38" s="18"/>
+      <c r="I38" s="21">
         <v>0.5</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="15">
+      <c r="J38" s="21"/>
+      <c r="K38" s="16">
         <v>0.06</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15">
+      <c r="L38" s="16"/>
+      <c r="M38" s="16">
         <v>0.08</v>
       </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15">
+      <c r="N38" s="16"/>
+      <c r="O38" s="16">
         <f t="shared" ref="O38:O43" si="13">K38-M38</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="P38" s="15"/>
+      <c r="P38" s="16"/>
       <c r="R38" s="7">
         <f t="shared" ref="R38:R49" si="14">A38</f>
         <v>1</v>
@@ -16495,40 +16597,40 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16">
+      <c r="B39" s="16"/>
+      <c r="C39" s="18">
         <v>1.9</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16">
+      <c r="D39" s="18"/>
+      <c r="E39" s="18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18">
         <f t="shared" si="12"/>
         <v>1.6199999999999999</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="19">
+      <c r="H39" s="18"/>
+      <c r="I39" s="21">
         <v>1</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="17">
+      <c r="J39" s="21"/>
+      <c r="K39" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="15">
+      <c r="L39" s="23"/>
+      <c r="M39" s="16">
         <v>0.06</v>
       </c>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15">
+      <c r="N39" s="16"/>
+      <c r="O39" s="16">
         <f t="shared" si="13"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="P39" s="15"/>
+      <c r="P39" s="16"/>
       <c r="R39" s="7">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -16547,40 +16649,40 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="16">
         <v>3</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16">
+      <c r="B40" s="16"/>
+      <c r="C40" s="18">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16">
+      <c r="D40" s="18"/>
+      <c r="E40" s="18">
         <v>0.39</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16">
+      <c r="F40" s="18"/>
+      <c r="G40" s="18">
         <f t="shared" si="12"/>
         <v>1.8899999999999997</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="19">
+      <c r="H40" s="18"/>
+      <c r="I40" s="21">
         <v>1.5</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="15">
+      <c r="J40" s="21"/>
+      <c r="K40" s="16">
         <v>0.04</v>
       </c>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15">
+      <c r="L40" s="16"/>
+      <c r="M40" s="16">
         <v>0.04</v>
       </c>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15">
+      <c r="N40" s="16"/>
+      <c r="O40" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P40" s="15"/>
+      <c r="P40" s="16"/>
       <c r="R40" s="7">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -16599,40 +16701,40 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16">
+      <c r="B41" s="16"/>
+      <c r="C41" s="18">
         <v>2.52</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18">
         <v>0.49</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16">
+      <c r="F41" s="18"/>
+      <c r="G41" s="18">
         <f t="shared" si="12"/>
         <v>2.0300000000000002</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="19">
+      <c r="H41" s="18"/>
+      <c r="I41" s="21">
         <v>2</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="15">
+      <c r="J41" s="21"/>
+      <c r="K41" s="16">
         <v>0.01</v>
       </c>
-      <c r="L41" s="15"/>
-      <c r="M41" s="16">
+      <c r="L41" s="16"/>
+      <c r="M41" s="18">
         <v>0</v>
       </c>
-      <c r="N41" s="16"/>
-      <c r="O41" s="15">
+      <c r="N41" s="18"/>
+      <c r="O41" s="16">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
-      <c r="P41" s="15"/>
+      <c r="P41" s="16"/>
       <c r="R41" s="7">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -16651,40 +16753,40 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="16">
         <v>5</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16">
+      <c r="B42" s="16"/>
+      <c r="C42" s="18">
         <v>2.74</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18">
         <f t="shared" si="12"/>
         <v>2.1800000000000002</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="19">
+      <c r="H42" s="18"/>
+      <c r="I42" s="21">
         <v>2.5</v>
       </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="15">
+      <c r="J42" s="21"/>
+      <c r="K42" s="16">
         <v>-0.05</v>
       </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16">
         <v>-0.02</v>
       </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15">
+      <c r="N42" s="16"/>
+      <c r="O42" s="16">
         <f t="shared" si="13"/>
         <v>-3.0000000000000002E-2</v>
       </c>
-      <c r="P42" s="15"/>
+      <c r="P42" s="16"/>
       <c r="R42" s="7">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -16703,40 +16805,40 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16">
+      <c r="B43" s="16"/>
+      <c r="C43" s="18">
         <v>2.87</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
         <v>0.65</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16">
+      <c r="F43" s="18"/>
+      <c r="G43" s="18">
         <f t="shared" si="12"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="19">
+      <c r="H43" s="18"/>
+      <c r="I43" s="21">
         <v>3</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="15">
+      <c r="J43" s="21"/>
+      <c r="K43" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16">
         <v>-0.05</v>
       </c>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15">
+      <c r="N43" s="16"/>
+      <c r="O43" s="16">
         <f t="shared" si="13"/>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="P43" s="15"/>
+      <c r="P43" s="16"/>
       <c r="R43" s="7">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -16755,23 +16857,23 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="16">
         <v>7</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16">
+      <c r="B44" s="16"/>
+      <c r="C44" s="18">
         <v>2.99</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16">
+      <c r="D44" s="18"/>
+      <c r="E44" s="18">
         <v>0.72</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
+      <c r="F44" s="18"/>
+      <c r="G44" s="18">
         <f t="shared" si="12"/>
         <v>2.2700000000000005</v>
       </c>
-      <c r="H44" s="16"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="5" t="s">
         <v>26</v>
       </c>
@@ -16802,23 +16904,23 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="16">
         <v>8</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16">
+      <c r="B45" s="16"/>
+      <c r="C45" s="18">
         <v>3.09</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18">
         <v>0.85</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16">
+      <c r="F45" s="18"/>
+      <c r="G45" s="18">
         <f t="shared" si="12"/>
         <v>2.2399999999999998</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="5" t="s">
         <v>29</v>
       </c>
@@ -16845,23 +16947,23 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16">
+      <c r="B46" s="16"/>
+      <c r="C46" s="18">
         <v>3.28</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18">
         <v>0.95</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16">
+      <c r="F46" s="18"/>
+      <c r="G46" s="18">
         <f t="shared" si="12"/>
         <v>2.33</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -16880,23 +16982,23 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="16">
         <v>10</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16">
+      <c r="B47" s="16"/>
+      <c r="C47" s="18">
         <v>3.39</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16">
+      <c r="D47" s="18"/>
+      <c r="E47" s="18">
         <v>0.99</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18">
         <f t="shared" si="12"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -16915,23 +17017,23 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="16">
         <v>11</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16">
+      <c r="B48" s="16"/>
+      <c r="C48" s="18">
         <v>3.48</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18">
         <f t="shared" si="12"/>
         <v>2.33</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -16950,23 +17052,23 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="16">
         <v>12</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16">
+      <c r="B49" s="16"/>
+      <c r="C49" s="18">
         <v>3.58</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16">
+      <c r="D49" s="18"/>
+      <c r="E49" s="18">
         <v>1.2</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16">
+      <c r="F49" s="18"/>
+      <c r="G49" s="18">
         <f t="shared" si="12"/>
         <v>2.38</v>
       </c>
-      <c r="H49" s="16"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -17021,178 +17123,6 @@
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
@@ -17216,6 +17146,178 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17226,8 +17328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC6F43-625F-AF49-9DDA-5A149CCF73F8}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="S8" zoomScale="267" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView topLeftCell="C1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17254,10 +17356,10 @@
       <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -17291,10 +17393,10 @@
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="24">
         <f>B3-$I$2</f>
         <v>0.12000000000000011</v>
@@ -17325,10 +17427,10 @@
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D14" si="0">B4-$I$2</f>
         <v>0.39999999999999991</v>
@@ -17347,10 +17449,10 @@
       <c r="A5" s="2">
         <v>0.3</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>2.58</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="24">
         <f t="shared" si="0"/>
         <v>0.70000000000000018</v>
@@ -17369,10 +17471,10 @@
       <c r="A6" s="2">
         <v>0.4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>2.83</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="24">
         <f t="shared" si="0"/>
         <v>0.95000000000000018</v>
@@ -17391,10 +17493,10 @@
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>3.09</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="24">
         <f t="shared" si="0"/>
         <v>1.21</v>
@@ -17413,10 +17515,10 @@
       <c r="A8" s="2">
         <v>0.6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>3.44</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="24">
         <f t="shared" si="0"/>
         <v>1.56</v>
@@ -17435,10 +17537,10 @@
       <c r="A9" s="2">
         <v>0.7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>3.62</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
         <v>1.7400000000000002</v>
@@ -17457,10 +17559,10 @@
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>3.94</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
         <v>2.06</v>
@@ -17479,10 +17581,10 @@
       <c r="A11" s="2">
         <v>0.9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>4.2300000000000004</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
         <v>2.3500000000000005</v>
@@ -17501,10 +17603,10 @@
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>4.5199999999999996</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="24">
         <f>B12-$I$2</f>
         <v>2.6399999999999997</v>
@@ -17523,10 +17625,10 @@
       <c r="A13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>4.75</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
         <v>2.87</v>
@@ -17545,10 +17647,10 @@
       <c r="A14" s="2">
         <v>1.2</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>5.05</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
         <v>3.17</v>
@@ -17593,10 +17695,10 @@
       <c r="J17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -17630,10 +17732,10 @@
       <c r="A19" s="2">
         <v>0.1</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="15">
         <v>1.95</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="24">
         <f>B19-$I$18</f>
         <v>7.0000000000000062E-2</v>
@@ -17664,10 +17766,10 @@
       <c r="A20" s="2">
         <v>0.2</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="15">
         <v>2.12</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="24">
         <f t="shared" ref="D20:D30" si="3">B20-$I$18</f>
         <v>0.24000000000000021</v>
@@ -17686,10 +17788,10 @@
       <c r="A21" s="2">
         <v>0.3</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="15">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="24">
         <f t="shared" si="3"/>
         <v>0.43999999999999995</v>
@@ -17708,10 +17810,10 @@
       <c r="A22" s="2">
         <v>0.4</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="15">
         <v>2.6</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="24">
         <f t="shared" si="3"/>
         <v>0.7200000000000002</v>
@@ -17730,10 +17832,10 @@
       <c r="A23" s="2">
         <v>0.5</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="15">
         <v>2.82</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="24">
         <f t="shared" si="3"/>
         <v>0.94</v>
@@ -17752,10 +17854,10 @@
       <c r="A24" s="2">
         <v>0.6</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="15">
         <v>3.04</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="24">
         <f t="shared" si="3"/>
         <v>1.1600000000000001</v>
@@ -17774,10 +17876,10 @@
       <c r="A25" s="2">
         <v>0.7</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="15">
         <v>3.2</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="24">
         <f t="shared" si="3"/>
         <v>1.3200000000000003</v>
@@ -17796,10 +17898,10 @@
       <c r="A26" s="2">
         <v>0.8</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="15">
         <v>3.46</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="24">
         <f t="shared" si="3"/>
         <v>1.58</v>
@@ -17818,10 +17920,10 @@
       <c r="A27" s="2">
         <v>0.9</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="15">
         <v>3.68</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="24">
         <f t="shared" si="3"/>
         <v>1.8000000000000003</v>
@@ -17840,10 +17942,10 @@
       <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="15">
         <v>3.9</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="24">
         <f t="shared" si="3"/>
         <v>2.02</v>
@@ -17862,10 +17964,10 @@
       <c r="A29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="15">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="24">
         <f t="shared" si="3"/>
         <v>2.2700000000000005</v>
@@ -17884,10 +17986,10 @@
       <c r="A30" s="2">
         <v>1.2</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="15">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="24">
         <f t="shared" si="3"/>
         <v>2.4699999999999998</v>
@@ -17904,11 +18006,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -17920,48 +18059,11 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17972,25 +18074,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C22428-B41F-904A-B5C7-BA56FF18B2DF}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="2">
         <v>430</v>
       </c>
@@ -18035,11 +18138,11 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2">
         <v>5.53</v>
       </c>
@@ -18078,11 +18181,11 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2">
         <v>1.78</v>
       </c>
@@ -18119,13 +18222,13 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="9">
         <f>$O$3/(D1 * 10^(-9))</f>
         <v>697674418604651.12</v>
@@ -18160,11 +18263,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2">
         <f>D2-D3</f>
         <v>3.75</v>
@@ -18249,20 +18352,20 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <f>C8</f>
         <v>697674418604651.12</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="M8" s="2">
         <f>E1</f>
         <v>470</v>
@@ -18276,7 +18379,7 @@
         <v>638297872340425.5</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q14" si="2">N8</f>
+        <f>N8</f>
         <v>4.6099999999999994</v>
       </c>
     </row>
@@ -18294,7 +18397,7 @@
         <v>576923076923076.88</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q9:Q14" si="2">N9</f>
         <v>3.1100000000000003</v>
       </c>
     </row>
